--- a/data/trans_bre/P17G_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R2-Dificultad-trans_bre.xlsx
@@ -660,26 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.428780632584549</v>
+        <v>-1.540205872866902</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4514515147280741</v>
+        <v>-0.4659943576712139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.673296824211096</v>
+        <v>-0.6713653774326152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07373367146447864</v>
-      </c>
-      <c r="G5" s="6" t="inlineStr"/>
+        <v>0.07717719046772215</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.9517379688396271</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7706172430911956</v>
+        <v>-0.8332222603720274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7363471553295716</v>
+        <v>-0.7861538016106944</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5023233416874183</v>
+        <v>-0.354716009035656</v>
       </c>
     </row>
     <row r="6">
@@ -690,23 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3331442388672151</v>
+        <v>0.349031262867296</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6186598136256266</v>
+        <v>0.6116111416065976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7353436501590772</v>
+        <v>0.8237364943743815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.172796480890776</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr"/>
+        <v>2.326753185745926</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.716559880270229</v>
+      </c>
       <c r="H6" s="6" t="n">
-        <v>6.073446053248337</v>
+        <v>5.412518031266758</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.108803486502455</v>
+        <v>3.78590160771462</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -754,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8203074438824972</v>
+        <v>-0.7456971755427257</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8430674144885625</v>
+        <v>-0.8308994391498079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5600185709133981</v>
+        <v>-0.6241402148611939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1482328846150552</v>
+        <v>-0.09338684714466169</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5067977971452171</v>
+        <v>-0.4816379870012911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5350205160839547</v>
+        <v>-0.5059124876484783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3387985969967272</v>
+        <v>-0.378825597450113</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2122312740374995</v>
+        <v>-0.2846099089738106</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.356516337697059</v>
+        <v>1.379227827012876</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.290271550051761</v>
+        <v>1.27245490431704</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.702312238262687</v>
+        <v>1.681855989339251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.656751578485688</v>
+        <v>1.690362644825451</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.036905344965907</v>
+        <v>1.697076673962153</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.812936035649712</v>
+        <v>1.867952028408256</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.455981398548823</v>
+        <v>2.411963857463968</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.514660425245883</v>
+        <v>6.051637732289928</v>
       </c>
     </row>
     <row r="10">
@@ -854,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3615485072545929</v>
+        <v>-0.3695250815371964</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.939069513909992</v>
+        <v>-0.9876697200114514</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.878421559568107</v>
+        <v>-1.921853446400873</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.988226863951455</v>
+        <v>-0.8316653372617938</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.22585854203223</v>
+        <v>-0.2139472552677468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5247176886414606</v>
+        <v>-0.525539333065934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.565882086623961</v>
+        <v>-0.566892742404554</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.364588585806129</v>
+        <v>-0.3609475831321546</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.943152284775729</v>
+        <v>2.044081719733128</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.574099053325861</v>
+        <v>1.33706226894947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.426086135081899</v>
+        <v>1.341484704869254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.506228075424438</v>
+        <v>1.490145707115727</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.945793793007011</v>
+        <v>1.908042840389122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.826053376238375</v>
+        <v>1.430871457474311</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8111282251348427</v>
+        <v>0.7538911590757046</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.303887014165697</v>
+        <v>1.287406891386456</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +935,7 @@
         <v>-0.1142861775689334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1864174357345399</v>
+        <v>0.1864174357345413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5973713143082584</v>
@@ -943,7 +947,7 @@
         <v>-0.02598120506429804</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.04879703127998582</v>
+        <v>0.0487970312799862</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.146534431995211</v>
+        <v>-1.06805095705529</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.560111492982079</v>
+        <v>-3.511519505193184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.910125922657304</v>
+        <v>-2.707780606087912</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.483507380502903</v>
+        <v>-1.513782636241414</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3872550590607673</v>
+        <v>-0.4543931132220363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7356102047871412</v>
+        <v>-0.7413180573974024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5020427487795341</v>
+        <v>-0.4996546837280884</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.306024310655075</v>
+        <v>-0.3196122310718933</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.750527775974292</v>
+        <v>4.161455807210379</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.2082604649847</v>
+        <v>1.370791628018513</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.423691968843547</v>
+        <v>2.592156813160672</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.928937058030153</v>
+        <v>1.912619139933113</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.129046749100997</v>
+        <v>3.090576025813359</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7844702965305568</v>
+        <v>0.8811458492106009</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7695839175842704</v>
+        <v>0.7934556254168492</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6928417908404593</v>
+        <v>0.70114517456301</v>
       </c>
     </row>
     <row r="16">
@@ -1054,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3533686360578357</v>
+        <v>-0.3374010011413536</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6062124307738721</v>
+        <v>-0.5864290572908154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6350116515604828</v>
+        <v>-0.6404633953793012</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2279206802434511</v>
+        <v>-0.231621724008763</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.213839145755181</v>
+        <v>-0.1966653730010078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3856378420278712</v>
+        <v>-0.3800277231192227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2965130932932637</v>
+        <v>-0.2935677778584408</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.109613292606202</v>
+        <v>-0.116561763820068</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.880511549135405</v>
+        <v>0.8801747659084354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5442848851331389</v>
+        <v>0.4883613578483813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7058428807948169</v>
+        <v>0.7026908507550333</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.102726113420623</v>
+        <v>1.095849214525822</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8002749916603691</v>
+        <v>0.8011978344999587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5543422351216587</v>
+        <v>0.5002463973079091</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4788349807799514</v>
+        <v>0.4822388572457594</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7147757990531765</v>
+        <v>0.7416269498488191</v>
       </c>
     </row>
     <row r="19">
